--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -648,76 +648,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -1952,301 +1952,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>211</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>212</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>213</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>214</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>216</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>217</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>218</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>219</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>220</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>221</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>222</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>223</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>224</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>225</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>226</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>227</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>228</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>229</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>230</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>231</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>232</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>233</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>234</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2369,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="250">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -2201,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -2246,7 +2249,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2309,13 +2312,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -2327,13 +2330,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="EB2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="EC2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -2342,13 +2345,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EG2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EH2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -2381,19 +2384,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="ET2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="EU2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -2424,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="258">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -297,6 +297,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -669,7 +678,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -684,6 +693,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -693,6 +711,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -727,6 +748,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1462,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1937,19 +1961,28 @@
       <c r="FA1" t="s">
         <v>207</v>
       </c>
+      <c r="FB1" t="s">
+        <v>208</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>209</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1961,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -1985,429 +2018,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>219</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>215</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>216</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>243</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>244</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>245</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>247</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>248</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>249</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>250</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>219</v>
       </c>
-      <c r="AO2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>232</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>233</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>234</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>235</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>236</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>238</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>239</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>240</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>241</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>242</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>243</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>216</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="EW2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2427,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="251">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -297,15 +297,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -648,9 +639,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -693,15 +681,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -711,7 +690,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -1486,970 +1465,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AP1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AR1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AS1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AT1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AU1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AW1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AX1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AY1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AZ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BA1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BB1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BC1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BD1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BE1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BF1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BG1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BH1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BI1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BJ1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BK1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BL1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BM1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BN1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BO1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BP1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BQ1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BR1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BS1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BT1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BU1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BV1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BW1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BX1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BY1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BZ1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CA1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CB1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CD1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CE1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CF1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CG1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CH1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CI1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CJ1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CK1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CL1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CM1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CN1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CO1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CP1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CQ1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CR1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CS1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CT1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CU1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CV1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CW1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CX1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CY1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CZ1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DA1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DB1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DC1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DD1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DE1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DF1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DG1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DH1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DI1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DJ1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DK1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DL1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DM1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DN1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DO1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DP1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DQ1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DR1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DS1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DT1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DU1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DV1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DW1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DX1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DY1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DZ1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="EA1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EB1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EC1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="ED1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EE1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EF1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EG1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EH1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EI1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EJ1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EK1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EL1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EM1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EN1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="EO1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="EP1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="EQ1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="ER1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="ES1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="ET1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="EU1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EV1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EW1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EX1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="EY1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="EZ1" t="s">
-        <v>206</v>
-      </c>
-      <c r="FA1" t="s">
         <v>207</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>209</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>211</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>213</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>214</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>215</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>216</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>218</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>219</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>221</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>222</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>223</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>224</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>225</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>226</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>227</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>228</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>229</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>230</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>231</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>232</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>233</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>234</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>235</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>236</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>237</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>238</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>239</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>240</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>241</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>242</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>243</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>244</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>215</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>245</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>246</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>247</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>248</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>249</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>250</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>251</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>219</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>252</v>
-      </c>
       <c r="EW2" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>255</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2469,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="249">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -303,9 +303,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -1465,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1934,466 +1928,463 @@
       <c r="EY1" t="s">
         <v>206</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>209</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>210</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>211</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>212</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>213</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>214</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>215</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>216</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>217</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>218</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>219</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>220</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>221</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>222</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>223</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>224</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>225</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>226</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>227</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>228</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>229</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>230</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>231</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>232</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>233</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>234</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>235</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>236</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>237</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>238</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>239</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>240</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>241</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>242</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>214</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>243</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>244</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>215</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>245</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>246</v>
       </c>
-      <c r="ET2" t="s">
-        <v>247</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -2402,9 +2393,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2424,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="291">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -636,55 +636,22 @@
     <t>source</t>
   </si>
   <si>
-    <t>${gbifOccurrenceID}</t>
-  </si>
-  <si>
-    <t>${catalogNumber}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
+    <t>imerss.org:PMLS:2400</t>
+  </si>
+  <si>
+    <t>Charlie Gibbs</t>
   </si>
   <si>
     <t>PRESENT</t>
   </si>
   <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${summary.taxonName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${summary.authority}</t>
+    <t>Eurylepta leoparda</t>
+  </si>
+  <si>
+    <t>iNaturalist:447179</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -699,61 +666,220 @@
     <t>British Columbia</t>
   </si>
   <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
-  </si>
-  <si>
-    <t>${coordinateUncertaintyInMeters}</t>
-  </si>
-  <si>
-    <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>!references.samplingProtocol</t>
-  </si>
-  <si>
-    <t>!Date:YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>!Date:HH:mm:ss</t>
-  </si>
-  <si>
-    <t>!Date:YYYY</t>
-  </si>
-  <si>
-    <t>!Date:M</t>
-  </si>
-  <si>
-    <t>!Date:D</t>
-  </si>
-  <si>
-    <t>${fieldNumber}</t>
-  </si>
-  <si>
-    <t>${fieldNotes}</t>
-  </si>
-  <si>
-    <t>${eventRemarks}</t>
-  </si>
-  <si>
-    <t>!references.institutionCode</t>
-  </si>
-  <si>
-    <t>!references.collectionCode</t>
-  </si>
-  <si>
-    <t>!references.datasetName</t>
-  </si>
-  <si>
-    <t>!references.basisOfRecord</t>
+    <t>Shaw's Landing</t>
+  </si>
+  <si>
+    <t>48.898082</t>
+  </si>
+  <si>
+    <t>-123.331018</t>
+  </si>
+  <si>
+    <t>1996-09-28</t>
+  </si>
+  <si>
+    <t>13:13:00</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>PMLS</t>
+  </si>
+  <si>
+    <t>Pacific Marine Life Survey Dive Records</t>
+  </si>
+  <si>
+    <t>HumanObservation</t>
+  </si>
+  <si>
+    <t>imerss.org:PMLS:3203</t>
+  </si>
+  <si>
+    <t>Andy Lamb</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Virago Point</t>
+  </si>
+  <si>
+    <t>49.00942</t>
+  </si>
+  <si>
+    <t>-123.58796</t>
+  </si>
+  <si>
+    <t>2005-12-10</t>
+  </si>
+  <si>
+    <t>11:29:00</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>in transparent tunicate</t>
+  </si>
+  <si>
+    <t>imerss.org:PMLS:10679</t>
+  </si>
+  <si>
+    <t>Spanish Hills Store</t>
+  </si>
+  <si>
+    <t>48.99</t>
+  </si>
+  <si>
+    <t>-123.58</t>
+  </si>
+  <si>
+    <t>2009-04-04</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>in open</t>
+  </si>
+  <si>
+    <t>imerss.org:PMLS:16808</t>
+  </si>
+  <si>
+    <t>2016-01-23</t>
+  </si>
+  <si>
+    <t>12:06:00</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>imerss.org:PMLS:17590</t>
+  </si>
+  <si>
+    <t>Kaburakia excelsa</t>
+  </si>
+  <si>
+    <t>iNaturalist:56699</t>
+  </si>
+  <si>
+    <t>Race Point</t>
+  </si>
+  <si>
+    <t>49.01283</t>
+  </si>
+  <si>
+    <t>-123.584794</t>
+  </si>
+  <si>
+    <t>2016-07-24</t>
+  </si>
+  <si>
+    <t>13:43:00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:4028701</t>
+  </si>
+  <si>
+    <t>Karolle Wall</t>
+  </si>
+  <si>
+    <t>48.940224</t>
+  </si>
+  <si>
+    <t>-123.501302</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2015-04-22</t>
+  </si>
+  <si>
+    <t>15:57:00</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>iNaturalist</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:24259233</t>
+  </si>
+  <si>
+    <t>Andrew Simon</t>
+  </si>
+  <si>
+    <t>49.012465</t>
+  </si>
+  <si>
+    <t>-123.572318</t>
+  </si>
+  <si>
+    <t>coordinate uncertainty inferred from coordinate resolution</t>
+  </si>
+  <si>
+    <t>2019-04-27</t>
+  </si>
+  <si>
+    <t>14:22:00</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:24632552</t>
+  </si>
+  <si>
+    <t>49.013809</t>
+  </si>
+  <si>
+    <t>-123.572397</t>
+  </si>
+  <si>
+    <t>2019-05-04</t>
+  </si>
+  <si>
+    <t>12:09:43</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Link type</t>
@@ -1459,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EY2"/>
+  <dimension ref="A1:EY9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -1937,462 +2063,3731 @@
         <v>207</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>210</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>211</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
         <v>212</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="BJ2" t="s">
         <v>214</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="BK2" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="BL2" t="s">
         <v>216</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2">
+        <v>84</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="CG2" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2">
+        <v>500</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="DV2" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="DZ2" t="s">
         <v>223</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="EA2" t="s">
         <v>224</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>225</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="ER2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES2" t="s">
         <v>226</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>227</v>
       </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="EV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>228</v>
       </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>229</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
         <v>230</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" t="s">
         <v>231</v>
       </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
+      <c r="BP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT3">
+        <v>80</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF3" t="s">
         <v>232</v>
       </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
+      <c r="CG3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3">
+        <v>500</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>235</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>236</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>237</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>238</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>239</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>226</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
         <v>209</v>
       </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>233</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>234</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>235</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>236</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>237</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>238</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>239</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>240</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>210</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO4" t="s">
         <v>241</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="BP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT4">
+        <v>92</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF4" t="s">
         <v>242</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
+      <c r="CG4" t="s">
+        <v>243</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI4">
+        <v>500</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>244</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>245</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>246</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>247</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>247</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>248</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>226</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>214</v>
       </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
+      <c r="BK5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT5">
+        <v>60</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>242</v>
+      </c>
+      <c r="CG5" t="s">
         <v>243</v>
       </c>
-      <c r="ER2" t="s">
-        <v>244</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>245</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>246</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EY2" t="s">
+      <c r="CH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI5">
+        <v>500</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>251</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>252</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>230</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>253</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>226</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>255</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT6">
+        <v>55</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI6">
+        <v>500</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>261</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>252</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>262</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>263</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>226</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>266</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>267</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>265</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>269</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>270</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>271</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>247</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>273</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>36</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>255</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI8">
+        <v>100</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>275</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>278</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>279</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>280</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>281</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>247</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>282</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>273</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>36</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>255</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>284</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>285</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>286</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>287</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>281</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>288</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>247</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>273</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>36</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>227</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2412,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -2333,7 +2333,7 @@
         <v>36</v>
       </c>
       <c r="CO2" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="CP2" t="s">
         <v>36</v>
@@ -2800,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="CO3" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="CP3" t="s">
         <v>36</v>
@@ -3267,7 +3267,7 @@
         <v>36</v>
       </c>
       <c r="CO4" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="CP4" t="s">
         <v>36</v>
@@ -3734,7 +3734,7 @@
         <v>36</v>
       </c>
       <c r="CO5" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="CP5" t="s">
         <v>36</v>
@@ -4201,7 +4201,7 @@
         <v>36</v>
       </c>
       <c r="CO6" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="CP6" t="s">
         <v>36</v>
@@ -4668,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="CO7" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="CP7" t="s">
         <v>36</v>
@@ -5135,7 +5135,7 @@
         <v>36</v>
       </c>
       <c r="CO8" t="s">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="CP8" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
+++ b/data/dataPaper-I-in/arphified/Platyhelminthes.xlsx
@@ -141,7 +141,7 @@
     <t>Stylochoidea</t>
   </si>
   <si>
-    <t>Stylochidae</t>
+    <t>Callioplanidae</t>
   </si>
   <si>
     <t>Kaburakia</t>
